--- a/Tables/aq_hmf_metrics_all_50_95.xlsx
+++ b/Tables/aq_hmf_metrics_all_50_95.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:U76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,6 +534,11 @@
           <t>dec_hmf</t>
         </is>
       </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -542,1597 +547,5172 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1006660990938971</v>
+        <v>2.518088949456595</v>
       </c>
       <c r="C2" t="n">
-        <v>33.30708191014251</v>
+        <v>178</v>
       </c>
       <c r="D2" t="n">
-        <v>9.955315764380751</v>
+        <v>114.59</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04927924686071875</v>
+        <v>2.033757351491249</v>
       </c>
       <c r="F2" t="n">
-        <v>66.2548</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>5.741889359028819</v>
+        <v>22.5</v>
       </c>
       <c r="H2" t="n">
-        <v>200.158712176848</v>
+        <v>285.775</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02545549821105979</v>
+        <v>0.320287321197144</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0213003591688839</v>
+        <v>0.2184547305237696</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02302548474066582</v>
+        <v>0.4241077545018384</v>
       </c>
       <c r="L2" t="n">
-        <v>0.01758752042369351</v>
+        <v>0.302641395069888</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01572841495489011</v>
+        <v>0.1791790377547968</v>
       </c>
       <c r="N2" t="n">
-        <v>0.01418349799968645</v>
+        <v>0.2436728079666384</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01505848703423497</v>
+        <v>0.474757984747872</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01696863828084364</v>
+        <v>0.6469071954331392</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01176772673455872</v>
+        <v>0.4468914892761984</v>
       </c>
       <c r="R2" t="n">
-        <v>0.02155534367289055</v>
+        <v>0.6344337377732256</v>
       </c>
       <c r="S2" t="n">
-        <v>0.01362098321266357</v>
+        <v>0.468274559550336</v>
       </c>
       <c r="T2" t="n">
-        <v>0.01498961551283262</v>
+        <v>0.3153717431621568</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Biscayne aquifer</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01683397195695814</v>
+        <v>0.1006660990938971</v>
       </c>
       <c r="C3" t="n">
-        <v>26.40142276422764</v>
+        <v>33.30708191014251</v>
       </c>
       <c r="D3" t="n">
-        <v>6.632828594246892</v>
+        <v>9.955315764380751</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004627649747850703</v>
+        <v>0.04927924686071875</v>
       </c>
       <c r="F3" t="n">
-        <v>72.66666666666667</v>
+        <v>66.2548</v>
       </c>
       <c r="G3" t="n">
-        <v>4.71510840108401</v>
+        <v>5.741889359028819</v>
       </c>
       <c r="H3" t="n">
-        <v>225.844265829022</v>
+        <v>200.158712176848</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001205699613359808</v>
+        <v>0.02545549821105979</v>
       </c>
       <c r="J3" t="n">
-        <v>0.003288407240621953</v>
+        <v>0.0213003591688839</v>
       </c>
       <c r="K3" t="n">
-        <v>0.006270627493358592</v>
+        <v>0.02302548474066582</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004477722564728449</v>
+        <v>0.01758752042369351</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00240844974397776</v>
+        <v>0.01572841495489011</v>
       </c>
       <c r="N3" t="n">
-        <v>0.00408948015143952</v>
+        <v>0.01418349799968645</v>
       </c>
       <c r="O3" t="n">
-        <v>0.00547167883146768</v>
+        <v>0.01505848703423497</v>
       </c>
       <c r="P3" t="n">
-        <v>0.007951012188457571</v>
+        <v>0.01696863828084364</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.007671431382770159</v>
+        <v>0.01176772673455872</v>
       </c>
       <c r="R3" t="n">
-        <v>0.006166734327062409</v>
+        <v>0.02155534367289055</v>
       </c>
       <c r="S3" t="n">
-        <v>0.00165327342537168</v>
+        <v>0.01362098321266357</v>
       </c>
       <c r="T3" t="n">
-        <v>0.003346691077831249</v>
+        <v>0.01498961551283262</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>California Coastal Basin aquifers</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08571206454510728</v>
+        <v>0.0001039650690943398</v>
       </c>
       <c r="C4" t="n">
-        <v>22.3602343625557</v>
+        <v>8.043478260869565</v>
       </c>
       <c r="D4" t="n">
-        <v>4.534326586024837</v>
+        <v>1.144877098008586</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01954100353572391</v>
+        <v>6.834758021218553e-06</v>
       </c>
       <c r="F4" t="n">
-        <v>84.85545454545455</v>
+        <v>10.204</v>
       </c>
       <c r="G4" t="n">
-        <v>5.346183382528372</v>
+        <v>1.352941176470588</v>
       </c>
       <c r="H4" t="n">
-        <v>130.9844951814045</v>
+        <v>108.8235294117647</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03853126726267299</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03921493052064717</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02990848398863886</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0141621387012051</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.00453839662309044</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.001229215298224984</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0003252306736897616</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0004054034064308857</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.0003169862476324527</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.001522957259471546</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01099064096674294</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02183734981317863</v>
+        <v>0</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Cambrian-Ordovician aquifer system</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1773364174070289</v>
+        <v>0.03011143241664432</v>
       </c>
       <c r="C5" t="n">
-        <v>21.26549435497556</v>
+        <v>37.875</v>
       </c>
       <c r="D5" t="n">
-        <v>6.457989564166421</v>
+        <v>12.63216036414566</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06870581822728697</v>
+        <v>0.01010423017981237</v>
       </c>
       <c r="F5" t="n">
-        <v>88.06143137254901</v>
+        <v>88</v>
       </c>
       <c r="G5" t="n">
-        <v>4.205417967910395</v>
+        <v>5.853658536585366</v>
       </c>
       <c r="H5" t="n">
-        <v>203.0319268061916</v>
+        <v>230.0416666666667</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003104877466760281</v>
+        <v>0.00249428376939168</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01592957267801227</v>
+        <v>0.005151020155053697</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05648375725710873</v>
+        <v>0.01390307330409984</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09875950651399862</v>
+        <v>0.01145046287151245</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05747401558084744</v>
+        <v>0.0046393188795576</v>
       </c>
       <c r="N5" t="n">
-        <v>0.06296967659865033</v>
+        <v>0.00687834326695824</v>
       </c>
       <c r="O5" t="n">
-        <v>0.04578970935580153</v>
+        <v>0.01242982706267232</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01969834320566164</v>
+        <v>0.01679900322566592</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.04528167246720472</v>
+        <v>0.01707159251777616</v>
       </c>
       <c r="R5" t="n">
-        <v>0.05152799773981639</v>
+        <v>0.01100854142570304</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01016796500862106</v>
+        <v>0.002909712297143232</v>
       </c>
       <c r="T5" t="n">
-        <v>0.01311974508405763</v>
+        <v>0.00777215886651792</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Central Valley aquifer system</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3855761092124548</v>
+        <v>0.01683397195695814</v>
       </c>
       <c r="C6" t="n">
-        <v>37.06842025627117</v>
+        <v>26.40142276422764</v>
       </c>
       <c r="D6" t="n">
-        <v>13.06417339378661</v>
+        <v>6.632828594246892</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1529314726040631</v>
+        <v>0.004627649747850703</v>
       </c>
       <c r="F6" t="n">
-        <v>57.05882352941177</v>
+        <v>72.66666666666667</v>
       </c>
       <c r="G6" t="n">
-        <v>3.370903458687765</v>
+        <v>4.71510840108401</v>
       </c>
       <c r="H6" t="n">
-        <v>149.6066041812601</v>
+        <v>225.844265829022</v>
       </c>
       <c r="I6" t="n">
-        <v>0.140388950387476</v>
+        <v>0.001205699613359808</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1661470580902699</v>
+        <v>0.003288407240621953</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1168491604294963</v>
+        <v>0.006270627493358592</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1197525997810028</v>
+        <v>0.004477722564728449</v>
       </c>
       <c r="M6" t="n">
-        <v>0.07010454731417132</v>
+        <v>0.00240844974397776</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03235409365801181</v>
+        <v>0.00408948015143952</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02568669260411292</v>
+        <v>0.00547167883146768</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.007951012188457571</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.279415094474918e-05</v>
+        <v>0.007671431382770159</v>
       </c>
       <c r="R6" t="n">
-        <v>1.021805081076706e-05</v>
+        <v>0.006166734327062409</v>
       </c>
       <c r="S6" t="n">
-        <v>0.02911941319354152</v>
+        <v>0.00165327342537168</v>
       </c>
       <c r="T6" t="n">
-        <v>0.07157549915079588</v>
+        <v>0.003346691077831249</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Coastal lowlands aquifer system</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2150500151452713</v>
+        <v>0.00329553726078528</v>
       </c>
       <c r="C7" t="n">
-        <v>20.43441687059129</v>
+        <v>20.5</v>
       </c>
       <c r="D7" t="n">
-        <v>4.239056033939317</v>
+        <v>3.605540084647915</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05749379194122426</v>
+        <v>0.0006356290409946518</v>
       </c>
       <c r="F7" t="n">
-        <v>89.9341888888889</v>
+        <v>48</v>
       </c>
       <c r="G7" t="n">
-        <v>6.059998133267817</v>
+        <v>3.291666666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>172.6792491844463</v>
+        <v>218.5365853658537</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06695782710930637</v>
+        <v>0.000277930982052864</v>
       </c>
       <c r="J7" t="n">
-        <v>0.05100435052260192</v>
+        <v>0.00023487125243904</v>
       </c>
       <c r="K7" t="n">
-        <v>0.06026400906661387</v>
+        <v>6.214301887449601e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.06513030931340985</v>
+        <v>0.0008156882871164161</v>
       </c>
       <c r="M7" t="n">
-        <v>0.06612209984274006</v>
+        <v>0.0007168466350483202</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0641083467485343</v>
+        <v>0.00112612377285504</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0850606520959583</v>
+        <v>0.00170709808738896</v>
       </c>
       <c r="P7" t="n">
-        <v>0.06383449019190782</v>
+        <v>0.0009351478985605528</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.07134929848684425</v>
+        <v>0.0007368106915056384</v>
       </c>
       <c r="R7" t="n">
-        <v>0.05816537359913779</v>
+        <v>0.001537479580110821</v>
       </c>
       <c r="S7" t="n">
-        <v>0.05100365071070925</v>
+        <v>0.000508153740954048</v>
       </c>
       <c r="T7" t="n">
-        <v>0.04385482568717648</v>
+        <v>0.0007299969786093601</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Columbia Plateau basaltic-rock aquifers</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4551172214399357</v>
+        <v>1.627407685013376</v>
       </c>
       <c r="C8" t="n">
-        <v>24.7757430550981</v>
+        <v>47.89473684210526</v>
       </c>
       <c r="D8" t="n">
-        <v>8.775568300069752</v>
+        <v>12.856</v>
       </c>
       <c r="E8" t="n">
-        <v>0.175653727907539</v>
+        <v>0.3792225882715258</v>
       </c>
       <c r="F8" t="n">
-        <v>77.25045454545455</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>3.54060287904033</v>
+        <v>11.85714285714286</v>
       </c>
       <c r="H8" t="n">
-        <v>184.2242785245721</v>
+        <v>181.421052631579</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05360830561016783</v>
+        <v>0.771903646229632</v>
       </c>
       <c r="J8" t="n">
-        <v>0.05170183067878554</v>
+        <v>0.634922599812928</v>
       </c>
       <c r="K8" t="n">
-        <v>0.08191125903116363</v>
+        <v>0.5662128606475126</v>
       </c>
       <c r="L8" t="n">
-        <v>0.07327172872893856</v>
+        <v>0.265392282378384</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1880373741194345</v>
+        <v>0.04813025743340734</v>
       </c>
       <c r="N8" t="n">
-        <v>0.2618744268405285</v>
+        <v>0.014190138168192</v>
       </c>
       <c r="O8" t="n">
-        <v>0.05617223863159546</v>
+        <v>0.0038044249744032</v>
       </c>
       <c r="P8" t="n">
-        <v>3.402964168861334e-05</v>
+        <v>0.00369922222591488</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.012864426679272e-05</v>
+        <v>0.003027637238472</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0003398515849686109</v>
+        <v>0.01497793549408128</v>
       </c>
       <c r="S8" t="n">
-        <v>0.009760796503023335</v>
+        <v>0.403603412611392</v>
       </c>
       <c r="T8" t="n">
-        <v>0.01768086561451229</v>
+        <v>0.592592509154279</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Edwards-Trinity aquifer system</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0979190936195244</v>
+        <v>0.08571206454510728</v>
       </c>
       <c r="C9" t="n">
-        <v>22.68909818710656</v>
+        <v>22.3602343625557</v>
       </c>
       <c r="D9" t="n">
-        <v>5.257146060796119</v>
+        <v>4.534326586024837</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02005303825196782</v>
+        <v>0.01954100353572391</v>
       </c>
       <c r="F9" t="n">
-        <v>81.64443333333334</v>
+        <v>84.85545454545455</v>
       </c>
       <c r="G9" t="n">
-        <v>4.351850582453106</v>
+        <v>5.346183382528372</v>
       </c>
       <c r="H9" t="n">
-        <v>197.7848044633879</v>
+        <v>130.9844951814045</v>
       </c>
       <c r="I9" t="n">
-        <v>0.01439477311954245</v>
+        <v>0.03853126726267299</v>
       </c>
       <c r="J9" t="n">
-        <v>0.02099315415007976</v>
+        <v>0.03921493052064717</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01949500147183499</v>
+        <v>0.02990848398863886</v>
       </c>
       <c r="L9" t="n">
-        <v>0.02304699428214873</v>
+        <v>0.0141621387012051</v>
       </c>
       <c r="M9" t="n">
-        <v>0.03009047482602317</v>
+        <v>0.00453839662309044</v>
       </c>
       <c r="N9" t="n">
-        <v>0.03717275884193371</v>
+        <v>0.001229215298224984</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02963932950285098</v>
+        <v>0.0003252306736897616</v>
       </c>
       <c r="P9" t="n">
-        <v>0.02308344172565495</v>
+        <v>0.0004054034064308857</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0134872586383231</v>
+        <v>0.0003169862476324527</v>
       </c>
       <c r="R9" t="n">
-        <v>0.03143911111767637</v>
+        <v>0.001522957259471546</v>
       </c>
       <c r="S9" t="n">
-        <v>0.02284639779199217</v>
+        <v>0.01099064096674294</v>
       </c>
       <c r="T9" t="n">
-        <v>0.03422385818990247</v>
+        <v>0.02183734981317863</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Floridan aquifer system</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1516825103817489</v>
+        <v>0.0007418526759438481</v>
       </c>
       <c r="C10" t="n">
-        <v>31.30376760590212</v>
+        <v>17.6530612244898</v>
       </c>
       <c r="D10" t="n">
-        <v>14.06265842891548</v>
+        <v>1.454894323262323</v>
       </c>
       <c r="E10" t="n">
-        <v>0.06954224999509964</v>
+        <v>9.695849307624639e-05</v>
       </c>
       <c r="F10" t="n">
-        <v>65.69279411764705</v>
+        <v>38</v>
       </c>
       <c r="G10" t="n">
-        <v>3.164932908619888</v>
+        <v>2.56</v>
       </c>
       <c r="H10" t="n">
-        <v>202.890932150642</v>
+        <v>103.734693877551</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04145371758565983</v>
+        <v>6.8574017453184e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0541199957588127</v>
+        <v>4.5914067751104e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.07186238035833839</v>
+        <v>0.0001433965111824</v>
       </c>
       <c r="L10" t="n">
-        <v>0.08130483722746243</v>
+        <v>7.549316610514735e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02162310444239865</v>
+        <v>2.2386166248096e-05</v>
       </c>
       <c r="N10" t="n">
-        <v>0.006385535210527113</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0.1108245190240815</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.01990378928921636</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01455817273084115</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.03780245643744021</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.01156460994097844</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.04336781459587352</v>
+        <v>5.4803292235776e-05</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>High Plains aquifer</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05407490956534178</v>
+        <v>1.613857805650413</v>
       </c>
       <c r="C11" t="n">
-        <v>23.76593069742827</v>
+        <v>43.28571428571428</v>
       </c>
       <c r="D11" t="n">
-        <v>6.819360631057141</v>
+        <v>18.12121212121212</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0185759342415504</v>
+        <v>0.8522581531760033</v>
       </c>
       <c r="F11" t="n">
-        <v>80.11323809523809</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>4.25733452630545</v>
+        <v>9.239130434782609</v>
       </c>
       <c r="H11" t="n">
-        <v>231.9371358287766</v>
+        <v>222.8</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001933183510745016</v>
+        <v>0.03714574487467559</v>
       </c>
       <c r="J11" t="n">
-        <v>0.006569314620754664</v>
+        <v>0.223127689817088</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0181439622506102</v>
+        <v>0.4095078149296512</v>
       </c>
       <c r="L11" t="n">
-        <v>0.01332215953235796</v>
+        <v>1.079665050785904</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02082440276237865</v>
+        <v>0.7287247593253152</v>
       </c>
       <c r="N11" t="n">
-        <v>0.026074158752586</v>
+        <v>0.612133201669248</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0158804301746643</v>
+        <v>0.5262933510754559</v>
       </c>
       <c r="P11" t="n">
-        <v>0.009433343009787041</v>
+        <v>0.273037830960384</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.009322870613991733</v>
+        <v>0.379871629812864</v>
       </c>
       <c r="R11" t="n">
-        <v>0.008250044260617258</v>
+        <v>0.4320163099550592</v>
       </c>
       <c r="S11" t="n">
-        <v>0.00486418871080172</v>
+        <v>0.06832935989856</v>
       </c>
       <c r="T11" t="n">
-        <v>0.002589538188813724</v>
+        <v>0.171749603346048</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Lower Cretaceous aquifers</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1626191438063447</v>
+        <v>0.1773364174070289</v>
       </c>
       <c r="C12" t="n">
-        <v>25.41396159575961</v>
+        <v>21.26549435497556</v>
       </c>
       <c r="D12" t="n">
-        <v>8.076552286496984</v>
+        <v>6.457989564166421</v>
       </c>
       <c r="E12" t="n">
-        <v>0.06586034247400593</v>
+        <v>0.06870581822728697</v>
       </c>
       <c r="F12" t="n">
-        <v>76.6178</v>
+        <v>88.06143137254901</v>
       </c>
       <c r="G12" t="n">
-        <v>4.020994021973182</v>
+        <v>4.205417967910395</v>
       </c>
       <c r="H12" t="n">
-        <v>230.0448211004298</v>
+        <v>203.0319268061916</v>
       </c>
       <c r="I12" t="n">
-        <v>0.00258300594811204</v>
+        <v>0.003104877466760281</v>
       </c>
       <c r="J12" t="n">
-        <v>0.004995192641233345</v>
+        <v>0.01592957267801227</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02929675840353133</v>
+        <v>0.05648375725710873</v>
       </c>
       <c r="L12" t="n">
-        <v>0.04257617210524003</v>
+        <v>0.09875950651399862</v>
       </c>
       <c r="M12" t="n">
-        <v>0.05946335555724631</v>
+        <v>0.05747401558084744</v>
       </c>
       <c r="N12" t="n">
-        <v>0.06407177349996408</v>
+        <v>0.06296967659865033</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0675928819053002</v>
+        <v>0.04578970935580153</v>
       </c>
       <c r="P12" t="n">
-        <v>0.043088114474197</v>
+        <v>0.01969834320566164</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.03905434729306649</v>
+        <v>0.04528167246720472</v>
       </c>
       <c r="R12" t="n">
-        <v>0.02779356348804075</v>
+        <v>0.05152799773981639</v>
       </c>
       <c r="S12" t="n">
-        <v>0.02019296161878435</v>
+        <v>0.01016796500862106</v>
       </c>
       <c r="T12" t="n">
-        <v>0.009442581718519123</v>
+        <v>0.01311974508405763</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mississippi River Valley alluvial aquifer</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.2577724664148802</v>
+        <v>0.001880092253078095</v>
       </c>
       <c r="C13" t="n">
-        <v>22.59191840645792</v>
+        <v>17.92</v>
       </c>
       <c r="D13" t="n">
-        <v>8.767014066336735</v>
+        <v>1.889324433026479</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1301830809726181</v>
+        <v>0.0001872225560072579</v>
       </c>
       <c r="F13" t="n">
-        <v>83.63636363636364</v>
+        <v>42</v>
       </c>
       <c r="G13" t="n">
-        <v>3.224318469482142</v>
+        <v>1.340425531914894</v>
       </c>
       <c r="H13" t="n">
-        <v>150.5284248169624</v>
+        <v>180.0408163265306</v>
       </c>
       <c r="I13" t="n">
-        <v>0.05074073381779624</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.05864815501515767</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1009677804068117</v>
+        <v>0.0005146686221228927</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1382778933017254</v>
+        <v>0.0001800004684640574</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1277749755210093</v>
+        <v>0.0002197416292610919</v>
       </c>
       <c r="N13" t="n">
-        <v>0.02659629646592081</v>
+        <v>0.000511806128733792</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01404615163689682</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0366637694920661</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.02918481046316922</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.03383890676493844</v>
+        <v>0.0002402249353990475</v>
       </c>
       <c r="S13" t="n">
-        <v>0.06370477245879913</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.09556601893479379</v>
+        <v>0</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Mississippi embayment aquifer system</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3229390113123229</v>
+        <v>1.492787479444283</v>
       </c>
       <c r="C14" t="n">
-        <v>19.8649159537564</v>
+        <v>69.92307692307692</v>
       </c>
       <c r="D14" t="n">
-        <v>4.360983762764142</v>
+        <v>35.87435897435898</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0929050777949641</v>
+        <v>0.7770512132977182</v>
       </c>
       <c r="F14" t="n">
-        <v>91.75224</v>
+        <v>88</v>
       </c>
       <c r="G14" t="n">
-        <v>5.621225288378354</v>
+        <v>5.613636363636363</v>
       </c>
       <c r="H14" t="n">
-        <v>156.7936607583807</v>
+        <v>194.2</v>
       </c>
       <c r="I14" t="n">
-        <v>0.06720819775710868</v>
+        <v>0.371390167919232</v>
       </c>
       <c r="J14" t="n">
-        <v>0.09509268452433878</v>
+        <v>0.672074302552128</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1170163393630129</v>
+        <v>0.505843086271488</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1264409290669139</v>
+        <v>0.523757456104512</v>
       </c>
       <c r="M14" t="n">
-        <v>0.147397940014046</v>
+        <v>0.348820508505168</v>
       </c>
       <c r="N14" t="n">
-        <v>0.08543442502586807</v>
+        <v>0.186429056623488</v>
       </c>
       <c r="O14" t="n">
-        <v>0.03785334741752167</v>
+        <v>0.1104139544018112</v>
       </c>
       <c r="P14" t="n">
-        <v>0.03708572340749273</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.03690293132378373</v>
+        <v>0.00017003700046368</v>
       </c>
       <c r="R14" t="n">
-        <v>0.07164146206447877</v>
+        <v>0.00017370686378304</v>
       </c>
       <c r="S14" t="n">
-        <v>0.03437116875321105</v>
+        <v>0.181780563085632</v>
       </c>
       <c r="T14" t="n">
-        <v>0.07946848778943041</v>
+        <v>0.303283621150776</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Northern Atlantic Coastal Plain aquifer system</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.03788270720850726</v>
+        <v>0.3855761092124548</v>
       </c>
       <c r="C15" t="n">
-        <v>19.78436899434817</v>
+        <v>37.06842025627117</v>
       </c>
       <c r="D15" t="n">
-        <v>3.2296801401375</v>
+        <v>13.06417339378661</v>
       </c>
       <c r="E15" t="n">
-        <v>0.009758390444068994</v>
+        <v>0.1529314726040631</v>
       </c>
       <c r="F15" t="n">
-        <v>92.82465277777777</v>
+        <v>57.05882352941177</v>
       </c>
       <c r="G15" t="n">
-        <v>7.490160951324897</v>
+        <v>3.370903458687765</v>
       </c>
       <c r="H15" t="n">
-        <v>179.5237612669247</v>
+        <v>149.6066041812601</v>
       </c>
       <c r="I15" t="n">
-        <v>0.00839328564314378</v>
+        <v>0.140388950387476</v>
       </c>
       <c r="J15" t="n">
-        <v>0.009885344259511205</v>
+        <v>0.1661470580902699</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01328923052718279</v>
+        <v>0.1168491604294963</v>
       </c>
       <c r="L15" t="n">
-        <v>0.008345300141691511</v>
+        <v>0.1197525997810028</v>
       </c>
       <c r="M15" t="n">
-        <v>0.009144979183076867</v>
+        <v>0.07010454731417132</v>
       </c>
       <c r="N15" t="n">
-        <v>0.006525223972729885</v>
+        <v>0.03235409365801181</v>
       </c>
       <c r="O15" t="n">
-        <v>0.00907828480810424</v>
+        <v>0.02568669260411292</v>
       </c>
       <c r="P15" t="n">
-        <v>0.005797493267345249</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.02766659311308873</v>
+        <v>1.279415094474918e-05</v>
       </c>
       <c r="R15" t="n">
-        <v>0.01964664834357384</v>
+        <v>1.021805081076706e-05</v>
       </c>
       <c r="S15" t="n">
-        <v>0.008104894126369309</v>
+        <v>0.02911941319354152</v>
       </c>
       <c r="T15" t="n">
-        <v>0.006849684174755263</v>
+        <v>0.07157549915079588</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.1497676069025931</v>
+        <v>0.001647398337877533</v>
       </c>
       <c r="C16" t="n">
-        <v>25.09057327332216</v>
+        <v>20.70454545454545</v>
       </c>
       <c r="D16" t="n">
-        <v>12.70299127037157</v>
+        <v>3.221935261707989</v>
       </c>
       <c r="E16" t="n">
-        <v>0.08497303502217553</v>
+        <v>0.0003442098743427356</v>
       </c>
       <c r="F16" t="n">
-        <v>74.03935714285714</v>
+        <v>26</v>
       </c>
       <c r="G16" t="n">
-        <v>2.360968837121169</v>
+        <v>2.076923076923077</v>
       </c>
       <c r="H16" t="n">
-        <v>236.158230642686</v>
+        <v>125.7954545454545</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01138724437880409</v>
+        <v>0.000529061767809624</v>
       </c>
       <c r="J16" t="n">
-        <v>0.007386019828594459</v>
+        <v>0.0006837425859265034</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01268650123704971</v>
+        <v>0.0008994176302335066</v>
       </c>
       <c r="L16" t="n">
-        <v>0.01659042023178128</v>
+        <v>0.0003424716449626752</v>
       </c>
       <c r="M16" t="n">
-        <v>0.06759545248956356</v>
+        <v>0.000168446726358624</v>
       </c>
       <c r="N16" t="n">
-        <v>0.09524062379923413</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02819890772367716</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.0008122213342292636</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.00217889396817192</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.006286344799516561</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.00267536676718764</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.005127487884665785</v>
+        <v>0.0002405228419508544</v>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basaltic-rock aquifers</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.1135324117969298</v>
+        <v>0.9571846246245834</v>
       </c>
       <c r="C17" t="n">
-        <v>24.59452822641245</v>
+        <v>31.51724137931035</v>
       </c>
       <c r="D17" t="n">
-        <v>8.510329039963802</v>
+        <v>15.54040404040404</v>
       </c>
       <c r="E17" t="n">
-        <v>0.03760046113483007</v>
+        <v>0.3338746456479953</v>
       </c>
       <c r="F17" t="n">
-        <v>78.69242</v>
+        <v>100</v>
       </c>
       <c r="G17" t="n">
-        <v>4.161998445315692</v>
+        <v>13.63265306122449</v>
       </c>
       <c r="H17" t="n">
-        <v>156.2351533714472</v>
+        <v>222.7142857142857</v>
       </c>
       <c r="I17" t="n">
-        <v>0.04019508908927511</v>
+        <v>0.555966817343424</v>
       </c>
       <c r="J17" t="n">
-        <v>0.03937152807500304</v>
+        <v>0.3446937112234955</v>
       </c>
       <c r="K17" t="n">
-        <v>0.03854182837817237</v>
+        <v>0.4314348884723124</v>
       </c>
       <c r="L17" t="n">
-        <v>0.02838270977933703</v>
+        <v>0.4901591778114528</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01467868067319766</v>
+        <v>0.4459087814317921</v>
       </c>
       <c r="N17" t="n">
-        <v>0.009187195383178562</v>
+        <v>0.5405238174120001</v>
       </c>
       <c r="O17" t="n">
-        <v>0.001913469091264343</v>
+        <v>1.033311181954464</v>
       </c>
       <c r="P17" t="n">
-        <v>0.0009095780702789223</v>
+        <v>0.479773464617664</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.0007853254690623966</v>
+        <v>0.790977874099392</v>
       </c>
       <c r="R17" t="n">
-        <v>0.00114867980845275</v>
+        <v>0.4532362751927854</v>
       </c>
       <c r="S17" t="n">
-        <v>0.01758343658022942</v>
+        <v>0.6227024080290112</v>
       </c>
       <c r="T17" t="n">
-        <v>0.03003458337777383</v>
+        <v>0.385733217059064</v>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basin-fill aquifers</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.1921417661007205</v>
+        <v>0.2150500151452713</v>
       </c>
       <c r="C18" t="n">
-        <v>25.12064718172944</v>
+        <v>20.43441687059129</v>
       </c>
       <c r="D18" t="n">
-        <v>8.930992091931831</v>
+        <v>4.239056033939317</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08658016649229346</v>
+        <v>0.05749379194122426</v>
       </c>
       <c r="F18" t="n">
-        <v>77.45801923076922</v>
+        <v>89.9341888888889</v>
       </c>
       <c r="G18" t="n">
-        <v>4.039343141991734</v>
+        <v>6.059998133267817</v>
       </c>
       <c r="H18" t="n">
-        <v>174.4548470860255</v>
+        <v>172.6792491844463</v>
       </c>
       <c r="I18" t="n">
-        <v>0.03141744685508627</v>
+        <v>0.06695782710930637</v>
       </c>
       <c r="J18" t="n">
-        <v>0.02480558456685258</v>
+        <v>0.05100435052260192</v>
       </c>
       <c r="K18" t="n">
-        <v>0.02162775208740328</v>
+        <v>0.06026400906661387</v>
       </c>
       <c r="L18" t="n">
-        <v>0.01578107169308242</v>
+        <v>0.06513030931340985</v>
       </c>
       <c r="M18" t="n">
-        <v>0.05266684454522892</v>
+        <v>0.06612209984274006</v>
       </c>
       <c r="N18" t="n">
-        <v>0.07595645355578989</v>
+        <v>0.0641083467485343</v>
       </c>
       <c r="O18" t="n">
-        <v>0.02181998518516783</v>
+        <v>0.0850606520959583</v>
       </c>
       <c r="P18" t="n">
-        <v>0.003001901145706752</v>
+        <v>0.06383449019190782</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.002244489974438236</v>
+        <v>0.07134929848684425</v>
       </c>
       <c r="R18" t="n">
-        <v>0.00449283636444295</v>
+        <v>0.05816537359913779</v>
       </c>
       <c r="S18" t="n">
-        <v>0.02176222060831107</v>
+        <v>0.05100365071070925</v>
       </c>
       <c r="T18" t="n">
-        <v>0.03147896146609229</v>
+        <v>0.04385482568717648</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.115864311338104</v>
+        <v>0.0044297034226011</v>
       </c>
       <c r="C19" t="n">
-        <v>19.0032551808212</v>
+        <v>16.68</v>
       </c>
       <c r="D19" t="n">
-        <v>2.37021596315266</v>
+        <v>1.321764235158939</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01957467983501785</v>
+        <v>0.0004606808399232794</v>
       </c>
       <c r="F19" t="n">
-        <v>96.39944390243902</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>8.452936226634261</v>
+        <v>1.787878787878788</v>
       </c>
       <c r="H19" t="n">
-        <v>168.3744235613109</v>
+        <v>134.8484848484848</v>
       </c>
       <c r="I19" t="n">
-        <v>0.02605212897346286</v>
+        <v>0.000440233646918753</v>
       </c>
       <c r="J19" t="n">
-        <v>0.02852039107434478</v>
+        <v>0.0004308182771553197</v>
       </c>
       <c r="K19" t="n">
-        <v>0.03689325424904399</v>
+        <v>0.0005801758631549132</v>
       </c>
       <c r="L19" t="n">
-        <v>0.03091065063663823</v>
+        <v>0.0009069863312502721</v>
       </c>
       <c r="M19" t="n">
-        <v>0.02239661934266023</v>
+        <v>0.0009341733654781389</v>
       </c>
       <c r="N19" t="n">
-        <v>0.03496335137318484</v>
+        <v>0.00061164388656</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01906423206615355</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.01291427028911767</v>
+        <v>0.000244657554624</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.05257919452589869</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.02073611762643648</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0.01876321250023551</v>
+        <v>0.0006818235354106298</v>
       </c>
       <c r="T19" t="n">
-        <v>0.02256510848712769</v>
+        <v>0.0004824646977185281</v>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Rio Grande aquifer system</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.07651373485364149</v>
+        <v>4.84582514675742</v>
       </c>
       <c r="C20" t="n">
-        <v>39.09278956751783</v>
+        <v>48.05263157894737</v>
       </c>
       <c r="D20" t="n">
-        <v>16.60745003386547</v>
+        <v>34.97368421052632</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0395988941725418</v>
+        <v>1.76475401875122</v>
       </c>
       <c r="F20" t="n">
-        <v>52.568875</v>
+        <v>100</v>
       </c>
       <c r="G20" t="n">
-        <v>3.368916062801933</v>
+        <v>5.583333333333333</v>
       </c>
       <c r="H20" t="n">
-        <v>236.2430429750403</v>
+        <v>242.027027027027</v>
       </c>
       <c r="I20" t="n">
-        <v>0.001232905873236157</v>
+        <v>0.68137128962784</v>
       </c>
       <c r="J20" t="n">
-        <v>0.001047740370941654</v>
+        <v>0.33395756206176</v>
       </c>
       <c r="K20" t="n">
-        <v>0.001498213144395785</v>
+        <v>0.7455065200185599</v>
       </c>
       <c r="L20" t="n">
-        <v>0.01400053719838491</v>
+        <v>0.65609000898336</v>
       </c>
       <c r="M20" t="n">
-        <v>0.03687982857188687</v>
+        <v>2.057744789784</v>
       </c>
       <c r="N20" t="n">
-        <v>0.03724190033739944</v>
+        <v>3.057534391647053</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0191983110890146</v>
+        <v>0.90453393052416</v>
       </c>
       <c r="P20" t="n">
-        <v>0.002994079778913317</v>
+        <v>0.0007364192394182934</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.001735476394417378</v>
+        <v>0.000366986331936</v>
       </c>
       <c r="R20" t="n">
-        <v>0.0009688979448543541</v>
+        <v>0.007168466350483201</v>
       </c>
       <c r="S20" t="n">
-        <v>0.001712295149037575</v>
+        <v>0.05240564820046187</v>
       </c>
       <c r="T20" t="n">
-        <v>0.001373464915031323</v>
+        <v>0.1078869476844889</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Silurian-Devonian aquifers</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0699539580043112</v>
+        <v>0.4551172214399357</v>
       </c>
       <c r="C21" t="n">
-        <v>19.03795753482108</v>
+        <v>24.7757430550981</v>
       </c>
       <c r="D21" t="n">
-        <v>3.386547416256719</v>
+        <v>8.775568300069752</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01476172071840101</v>
+        <v>0.175653727907539</v>
       </c>
       <c r="F21" t="n">
-        <v>96.20107692307693</v>
+        <v>77.25045454545455</v>
       </c>
       <c r="G21" t="n">
-        <v>6.913528134099818</v>
+        <v>3.54060287904033</v>
       </c>
       <c r="H21" t="n">
-        <v>185.1433250108745</v>
+        <v>184.2242785245721</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01313174963134276</v>
+        <v>0.05360830561016783</v>
       </c>
       <c r="J21" t="n">
-        <v>0.01537086438829594</v>
+        <v>0.05170183067878554</v>
       </c>
       <c r="K21" t="n">
-        <v>0.01957047207485057</v>
+        <v>0.08191125903116363</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01707887528993631</v>
+        <v>0.07327172872893856</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01658340921560942</v>
+        <v>0.1880373741194345</v>
       </c>
       <c r="N21" t="n">
-        <v>0.02284173154794624</v>
+        <v>0.2618744268405285</v>
       </c>
       <c r="O21" t="n">
-        <v>0.02336680709494782</v>
+        <v>0.05617223863159546</v>
       </c>
       <c r="P21" t="n">
-        <v>0.015970112906373</v>
+        <v>3.402964168861334e-05</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.02114995083355985</v>
+        <v>2.012864426679272e-05</v>
       </c>
       <c r="R21" t="n">
-        <v>0.01518017954691209</v>
+        <v>0.0003398515849686109</v>
       </c>
       <c r="S21" t="n">
-        <v>0.009164530356619001</v>
+        <v>0.009760796503023335</v>
       </c>
       <c r="T21" t="n">
-        <v>0.01319101180302855</v>
+        <v>0.01768086561451229</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Snake River Plain basaltic-rock aquifers</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.09359903374094732</v>
+        <v>0.004387243752709317</v>
       </c>
       <c r="C22" t="n">
-        <v>48.16383916383916</v>
+        <v>18.19148936170213</v>
       </c>
       <c r="D22" t="n">
-        <v>19.45575825419576</v>
+        <v>3.266395121082621</v>
       </c>
       <c r="E22" t="n">
-        <v>0.04263937539058422</v>
+        <v>0.001525624797846879</v>
       </c>
       <c r="F22" t="n">
-        <v>52.91833333333333</v>
+        <v>38</v>
       </c>
       <c r="G22" t="n">
-        <v>2.890453765453766</v>
+        <v>1.736842105263158</v>
       </c>
       <c r="H22" t="n">
-        <v>195.8977565227565</v>
+        <v>106.7916666666667</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00171912708382464</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01182179478763296</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01722244202298368</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.02353744685457098</v>
+        <v>0.0019847844118872</v>
       </c>
       <c r="M22" t="n">
-        <v>0.04274795255880259</v>
+        <v>0.00058473155555136</v>
       </c>
       <c r="N22" t="n">
-        <v>0.04267160394684833</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0.009579872373246</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0.00018906592137888</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.0004407993562591624</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.0004851587646906811</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0.00024683228844288</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.0007833119373878401</v>
+        <v>0</v>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Southeastern Coastal Plain aquifer system</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.2455616060739392</v>
+        <v>0.4902576233512896</v>
       </c>
       <c r="C23" t="n">
-        <v>19.76181517294468</v>
+        <v>35</v>
       </c>
       <c r="D23" t="n">
-        <v>3.601937359383174</v>
+        <v>10.43428571428571</v>
       </c>
       <c r="E23" t="n">
-        <v>0.04474746978801411</v>
+        <v>0.08180735663038355</v>
       </c>
       <c r="F23" t="n">
-        <v>89.5104193548387</v>
+        <v>100</v>
       </c>
       <c r="G23" t="n">
-        <v>5.864953119076207</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="H23" t="n">
-        <v>157.5663754349578</v>
+        <v>229.0606060606061</v>
       </c>
       <c r="I23" t="n">
-        <v>0.06450211408179313</v>
+        <v>0.1275766818586848</v>
       </c>
       <c r="J23" t="n">
-        <v>0.06512993905636083</v>
+        <v>0.1302067505708928</v>
       </c>
       <c r="K23" t="n">
-        <v>0.08595758562283681</v>
+        <v>0.0929277352893792</v>
       </c>
       <c r="L23" t="n">
-        <v>0.06718697248411792</v>
+        <v>0.1620047047472551</v>
       </c>
       <c r="M23" t="n">
-        <v>0.04437020180128108</v>
+        <v>0.1973034410908547</v>
       </c>
       <c r="N23" t="n">
-        <v>0.02596039345654624</v>
+        <v>0.2365324772349369</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0685083926328561</v>
+        <v>0.140112323313732</v>
       </c>
       <c r="P23" t="n">
-        <v>0.01656844761603506</v>
+        <v>0.10231928445168</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.05124806355813501</v>
+        <v>0.0615191421102048</v>
       </c>
       <c r="R23" t="n">
-        <v>0.03817659989174426</v>
+        <v>0.1873440758777818</v>
       </c>
       <c r="S23" t="n">
-        <v>0.04259382795382184</v>
+        <v>0.08565053224795201</v>
       </c>
       <c r="T23" t="n">
-        <v>0.06912034481701544</v>
+        <v>0.1997580001994035</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Surficial aquifer system</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1151620230771361</v>
+        <v>0.0979190936195244</v>
       </c>
       <c r="C24" t="n">
-        <v>23.39056947069516</v>
+        <v>22.68909818710656</v>
       </c>
       <c r="D24" t="n">
-        <v>7.888134173150633</v>
+        <v>5.257146060796119</v>
       </c>
       <c r="E24" t="n">
-        <v>0.04762434118895748</v>
+        <v>0.02005303825196782</v>
       </c>
       <c r="F24" t="n">
-        <v>79.73744000000001</v>
+        <v>81.64443333333334</v>
       </c>
       <c r="G24" t="n">
-        <v>3.641605758673001</v>
+        <v>4.351850582453106</v>
       </c>
       <c r="H24" t="n">
-        <v>208.9662263577165</v>
+        <v>197.7848044633879</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0367472512624849</v>
+        <v>0.01439477311954245</v>
       </c>
       <c r="J24" t="n">
-        <v>0.04212627991864113</v>
+        <v>0.02099315415007976</v>
       </c>
       <c r="K24" t="n">
-        <v>0.05149672625775371</v>
+        <v>0.01949500147183499</v>
       </c>
       <c r="L24" t="n">
-        <v>0.04043444135429557</v>
+        <v>0.02304699428214873</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01445185187687261</v>
+        <v>0.03009047482602317</v>
       </c>
       <c r="N24" t="n">
-        <v>0.01865440083315967</v>
+        <v>0.03717275884193371</v>
       </c>
       <c r="O24" t="n">
-        <v>0.03493393351735791</v>
+        <v>0.02963932950285098</v>
       </c>
       <c r="P24" t="n">
-        <v>0.01987443813866058</v>
+        <v>0.02308344172565495</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.03198285040008275</v>
+        <v>0.0134872586383231</v>
       </c>
       <c r="R24" t="n">
-        <v>0.0417345985886755</v>
+        <v>0.03143911111767637</v>
       </c>
       <c r="S24" t="n">
-        <v>0.01535004278922781</v>
+        <v>0.02284639779199217</v>
       </c>
       <c r="T24" t="n">
-        <v>0.03364750262332566</v>
+        <v>0.03422385818990247</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Valley and Ridge aquifers</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1088012759334853</v>
+        <v>0.003439795081019631</v>
       </c>
       <c r="C25" t="n">
-        <v>18.66643457911594</v>
+        <v>18.25</v>
       </c>
       <c r="D25" t="n">
-        <v>2.905171648327878</v>
+        <v>2.351216029341029</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01858263414165666</v>
+        <v>0.000589036514979906</v>
       </c>
       <c r="F25" t="n">
-        <v>97.605</v>
+        <v>52</v>
       </c>
       <c r="G25" t="n">
-        <v>6.481532610455696</v>
+        <v>2.285714285714286</v>
       </c>
       <c r="H25" t="n">
-        <v>166.9826526501073</v>
+        <v>164.4375</v>
       </c>
       <c r="I25" t="n">
-        <v>0.02227716627769013</v>
+        <v>0.0002681936113788288</v>
       </c>
       <c r="J25" t="n">
-        <v>0.02627396923140742</v>
+        <v>0.00039634523849088</v>
       </c>
       <c r="K25" t="n">
-        <v>0.03640935444825113</v>
+        <v>0.000589135391534592</v>
       </c>
       <c r="L25" t="n">
-        <v>0.03115341079003447</v>
+        <v>0.0004052641184367186</v>
       </c>
       <c r="M25" t="n">
-        <v>0.02249008427047313</v>
+        <v>0.000977502075327456</v>
       </c>
       <c r="N25" t="n">
-        <v>0.02796306062679069</v>
+        <v>0.001494436422267297</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01343562833112127</v>
+        <v>0.0007558428250958055</v>
       </c>
       <c r="P25" t="n">
-        <v>0.013926445002522</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.04315922675311237</v>
+        <v>0.0005859303775690223</v>
       </c>
       <c r="R25" t="n">
-        <v>0.01824358460938715</v>
+        <v>0.001264687326470304</v>
       </c>
       <c r="S25" t="n">
-        <v>0.01747434870795457</v>
+        <v>0.000149027032960344</v>
       </c>
       <c r="T25" t="n">
-        <v>0.02001748322315995</v>
+        <v>0.001080358829708668</v>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
+          <t>Floridan aquifer system</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1.20978769472126</v>
+      </c>
+      <c r="C26" t="n">
+        <v>114.125</v>
+      </c>
+      <c r="D26" t="n">
+        <v>56.53125</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.4557026828286916</v>
+      </c>
+      <c r="F26" t="n">
+        <v>98</v>
+      </c>
+      <c r="G26" t="n">
+        <v>7.387755102040816</v>
+      </c>
+      <c r="H26" t="n">
+        <v>259</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.2676675976363873</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.3834150867290016</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.517559464720704</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.5299540167423865</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.2256756234931091</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.034822925274816</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.412652720398976</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.197438646581568</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.0720869892613248</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.298604545418592</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.142941176289072</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.3912741546314008</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Floridan aquifer system</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1516825103817489</v>
+      </c>
+      <c r="C27" t="n">
+        <v>31.30376760590212</v>
+      </c>
+      <c r="D27" t="n">
+        <v>14.06265842891548</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.06954224999509964</v>
+      </c>
+      <c r="F27" t="n">
+        <v>65.69279411764705</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.164932908619888</v>
+      </c>
+      <c r="H27" t="n">
+        <v>202.890932150642</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.04145371758565983</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.0541199957588127</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.07186238035833839</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.08130483722746243</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.02162310444239865</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.006385535210527113</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.1108245190240815</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.01990378928921636</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.01455817273084115</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.03780245643744021</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.01156460994097844</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.04336781459587352</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Floridan aquifer system</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0003394430419706981</v>
+      </c>
+      <c r="C28" t="n">
+        <v>18.6530612244898</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.451928843465458</v>
+      </c>
+      <c r="E28" t="n">
+        <v>7.620796677350905e-05</v>
+      </c>
+      <c r="F28" t="n">
+        <v>16</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="H28" t="n">
+        <v>117.125</v>
+      </c>
+      <c r="I28" t="n">
+        <v>8.685343189152e-05</v>
+      </c>
+      <c r="J28" t="n">
+        <v>5.464018719936e-05</v>
+      </c>
+      <c r="K28" t="n">
+        <v>7.645548582e-05</v>
+      </c>
+      <c r="L28" t="n">
+        <v>6.1164388656e-05</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.8869591445632e-05</v>
+      </c>
+      <c r="O28" t="n">
+        <v>5.382466201728e-05</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.000161691459433728</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.000170893301904864</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>3.588310801152e-05</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>High Plains aquifer</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.352228162749681</v>
+      </c>
+      <c r="C29" t="n">
+        <v>60.8</v>
+      </c>
+      <c r="D29" t="n">
+        <v>35.88888888888889</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.1937014078810421</v>
+      </c>
+      <c r="F29" t="n">
+        <v>100</v>
+      </c>
+      <c r="G29" t="n">
+        <v>7.363636363636363</v>
+      </c>
+      <c r="H29" t="n">
+        <v>288.5</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.01794563163167049</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.0545097031702272</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.15052264789248</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.117160386470568</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.1902090158424288</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.234894189084786</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.09801358034475324</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.0974226382512768</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.06369414777081216</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.0856515516544296</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.0586968424622208</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.0140433436354176</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>High Plains aquifer</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.05407490956534178</v>
+      </c>
+      <c r="C30" t="n">
+        <v>23.76593069742827</v>
+      </c>
+      <c r="D30" t="n">
+        <v>6.819360631057141</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0185759342415504</v>
+      </c>
+      <c r="F30" t="n">
+        <v>80.11323809523809</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4.25733452630545</v>
+      </c>
+      <c r="H30" t="n">
+        <v>231.9371358287766</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.001933183510745016</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.006569314620754664</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.0181439622506102</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.01332215953235796</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.02082440276237865</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.026074158752586</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.0158804301746643</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.009433343009787041</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.009322870613991733</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.008250044260617258</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.00486418871080172</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.002589538188813724</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>High Plains aquifer</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.0001079852322446924</v>
+      </c>
+      <c r="C31" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.266234182484182</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2.523202137773439e-05</v>
+      </c>
+      <c r="F31" t="n">
+        <v>30</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.956521739130435</v>
+      </c>
+      <c r="H31" t="n">
+        <v>184.3684210526316</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2.673894326340647e-05</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1.51198368757632e-05</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.000133990787415744</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.6025069827872e-05</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Lower Cretaceous aquifers</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>3.465916781825434</v>
+      </c>
+      <c r="C32" t="n">
+        <v>60.86666666666667</v>
+      </c>
+      <c r="D32" t="n">
+        <v>25.09055555555556</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.400869468884829</v>
+      </c>
+      <c r="F32" t="n">
+        <v>100</v>
+      </c>
+      <c r="G32" t="n">
+        <v>8.959183673469388</v>
+      </c>
+      <c r="H32" t="n">
+        <v>255.9387755102041</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.02901312387767808</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.039879181403712</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.401788869081264</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.9841961778636961</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.479933547920576</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1.094054215933056</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.619947571323968</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.415180848463424</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.960403230676512</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.7198314572147329</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.670239370892448</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.142635354345792</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Lower Cretaceous aquifers</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.1626191438063447</v>
+      </c>
+      <c r="C33" t="n">
+        <v>25.41396159575961</v>
+      </c>
+      <c r="D33" t="n">
+        <v>8.076552286496984</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.06586034247400593</v>
+      </c>
+      <c r="F33" t="n">
+        <v>76.6178</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4.020994021973182</v>
+      </c>
+      <c r="H33" t="n">
+        <v>230.0448211004298</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.00258300594811204</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.004995192641233345</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.02929675840353133</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.04257617210524003</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.05946335555724631</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.06407177349996408</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.0675928819053002</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.043088114474197</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.03905434729306649</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.02779356348804075</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.02019296161878435</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.009442581718519123</v>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Lower Cretaceous aquifers</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.000632139875894146</v>
+      </c>
+      <c r="C34" t="n">
+        <v>18.22</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.94614114043886</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0001286619316597412</v>
+      </c>
+      <c r="F34" t="n">
+        <v>30</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.785714285714286</v>
+      </c>
+      <c r="H34" t="n">
+        <v>201.725</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.000119759872988448</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.000397369742000868</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.00029830746124512</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi River Valley alluvial aquifer</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1.326893051692834</v>
+      </c>
+      <c r="C35" t="n">
+        <v>37.875</v>
+      </c>
+      <c r="D35" t="n">
+        <v>25.32291666666667</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.8340487400865007</v>
+      </c>
+      <c r="F35" t="n">
+        <v>100</v>
+      </c>
+      <c r="G35" t="n">
+        <v>6.276595744680851</v>
+      </c>
+      <c r="H35" t="n">
+        <v>161.75</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.2259167859398016</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.2428115021663826</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.4139041229881256</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.830214829422216</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.76906573186338</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.138170353973904</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.08643751404865921</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.245636184842496</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.105569734820256</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.203555085447168</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.350227289444256</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.5063966548799302</v>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi River Valley alluvial aquifer</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.2577724664148802</v>
+      </c>
+      <c r="C36" t="n">
+        <v>22.59191840645792</v>
+      </c>
+      <c r="D36" t="n">
+        <v>8.767014066336735</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.1301830809726181</v>
+      </c>
+      <c r="F36" t="n">
+        <v>83.63636363636364</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3.224318469482142</v>
+      </c>
+      <c r="H36" t="n">
+        <v>150.5284248169624</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.05074073381779624</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.05864815501515767</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1009677804068117</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.1382778933017254</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.1277749755210093</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.02659629646592081</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.01404615163689682</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.0366637694920661</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.02918481046316922</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.03383890676493844</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.06370477245879913</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.09556601893479379</v>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi River Valley alluvial aquifer</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.01791355855536891</v>
+      </c>
+      <c r="C37" t="n">
+        <v>17.87234042553191</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2.794321757369317</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.005315245886296269</v>
+      </c>
+      <c r="F37" t="n">
+        <v>48</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.625</v>
+      </c>
+      <c r="H37" t="n">
+        <v>141.8723404255319</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.0051107377417544</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.004414794602866456</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.00644812460751199</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.005359563536197921</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.007979069255571359</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.00083509778644992</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.0016962923787264</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.003644507900062603</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.00632623271869008</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi embayment aquifer system</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1.772360490084912</v>
+      </c>
+      <c r="C38" t="n">
+        <v>26.82352941176471</v>
+      </c>
+      <c r="D38" t="n">
+        <v>9.199583333333333</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.6435696586254769</v>
+      </c>
+      <c r="F38" t="n">
+        <v>100</v>
+      </c>
+      <c r="G38" t="n">
+        <v>11.78</v>
+      </c>
+      <c r="H38" t="n">
+        <v>170.42</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.3968771027400627</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.793546778422944</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.8063062017608348</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.940218982420032</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.26549120129264</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.8701904623618855</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.334272121774848</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.435245789676096</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.340318658481984</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.594844067809152</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.168704975999616</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.331347881479104</v>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi embayment aquifer system</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.3229390113123229</v>
+      </c>
+      <c r="C39" t="n">
+        <v>19.8649159537564</v>
+      </c>
+      <c r="D39" t="n">
+        <v>4.360983762764142</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0929050777949641</v>
+      </c>
+      <c r="F39" t="n">
+        <v>91.75224</v>
+      </c>
+      <c r="G39" t="n">
+        <v>5.621225288378354</v>
+      </c>
+      <c r="H39" t="n">
+        <v>156.7936607583807</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.06720819775710868</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.09509268452433878</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.1170163393630129</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.1264409290669139</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.147397940014046</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.08543442502586807</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.03785334741752167</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.03708572340749273</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.03690293132378373</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.07164146206447877</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.03437116875321105</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.07946848778943041</v>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Mississippi embayment aquifer system</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.0191683322266593</v>
+      </c>
+      <c r="C40" t="n">
+        <v>17.54</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.476397264156552</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.001663689957253126</v>
+      </c>
+      <c r="F40" t="n">
+        <v>68</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H40" t="n">
+        <v>147.4186046511628</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.003480060563825381</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.00375173825450045</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.004887859661647434</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.005284867674532048</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.002252406414252044</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.001789099144447104</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.00231690704228928</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.002719723867708924</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0.3088216576453899</v>
+      </c>
+      <c r="C41" t="n">
+        <v>36.28</v>
+      </c>
+      <c r="D41" t="n">
+        <v>10.92612433862434</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.08692909799078555</v>
+      </c>
+      <c r="F41" t="n">
+        <v>100</v>
+      </c>
+      <c r="G41" t="n">
+        <v>14.28</v>
+      </c>
+      <c r="H41" t="n">
+        <v>208.0612244897959</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.07879036987391165</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.08817081872411078</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.1262335118837991</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.0659474438488992</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.1246040925700032</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.0694392508368384</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.101218325455872</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.03160323185596437</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.2790604844300448</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.2067600994127424</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.06067507354675201</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.065187646220928</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0.03788270720850726</v>
+      </c>
+      <c r="C42" t="n">
+        <v>19.78436899434817</v>
+      </c>
+      <c r="D42" t="n">
+        <v>3.2296801401375</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.009758390444068994</v>
+      </c>
+      <c r="F42" t="n">
+        <v>92.82465277777777</v>
+      </c>
+      <c r="G42" t="n">
+        <v>7.490160951324897</v>
+      </c>
+      <c r="H42" t="n">
+        <v>179.5237612669247</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.00839328564314378</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.009885344259511205</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.01328923052718279</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.008345300141691511</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.009144979183076867</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.006525223972729885</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0.00907828480810424</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.005797493267345249</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.02766659311308873</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.01964664834357384</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.008104894126369309</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.006849684174755263</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>8.373335801029581e-05</v>
+      </c>
+      <c r="C43" t="n">
+        <v>17.79166666666667</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.220366071855176</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.021625167283641e-05</v>
+      </c>
+      <c r="F43" t="n">
+        <v>50</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.230769230769231</v>
+      </c>
+      <c r="H43" t="n">
+        <v>153.0666666666667</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1.488190740389164e-05</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1.205228987369339e-05</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2.20436456716224e-05</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.987670464892693e-05</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2.149194288594552e-05</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.913088627584462e-05</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1.36724427826078e-05</v>
+      </c>
+      <c r="P43" t="n">
+        <v>1.955254245044099e-05</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.22328777312e-05</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4.828724603095787e-06</v>
+      </c>
+      <c r="S43" t="n">
+        <v>1.274443443632291e-05</v>
+      </c>
+      <c r="T43" t="n">
+        <v>8.1552518208e-06</v>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1.060074734720427</v>
+      </c>
+      <c r="C44" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="D44" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.7502027170564488</v>
+      </c>
+      <c r="F44" t="n">
+        <v>92</v>
+      </c>
+      <c r="G44" t="n">
+        <v>3.390243902439024</v>
+      </c>
+      <c r="H44" t="n">
+        <v>274.4666666666666</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.21774522361536</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.111441516131232</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.15032847523008</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.0908780486650848</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.4504461267795097</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.7339038539347621</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.199694932918656</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.011254247512704</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0.05871781310976</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.174196178892288</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.019327946815296</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.068422562776512</v>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0.1497676069025931</v>
+      </c>
+      <c r="C45" t="n">
+        <v>25.09057327332216</v>
+      </c>
+      <c r="D45" t="n">
+        <v>12.70299127037157</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.08497303502217553</v>
+      </c>
+      <c r="F45" t="n">
+        <v>74.03935714285714</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.360968837121169</v>
+      </c>
+      <c r="H45" t="n">
+        <v>236.158230642686</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.01138724437880409</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.007386019828594459</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.01268650123704971</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.01659042023178128</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.06759545248956356</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.09524062379923413</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0.02819890772367716</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.0008122213342292636</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.00217889396817192</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.006286344799516561</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.00267536676718764</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.005127487884665785</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0.003770906889419712</v>
+      </c>
+      <c r="C46" t="n">
+        <v>19.26086956521739</v>
+      </c>
+      <c r="D46" t="n">
+        <v>6.297644927536232</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.00175965513343507</v>
+      </c>
+      <c r="F46" t="n">
+        <v>40</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.314285714285714</v>
+      </c>
+      <c r="H46" t="n">
+        <v>191.4848484848485</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.000774585817939584</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.00163105036416</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1.59761383169472</v>
+      </c>
+      <c r="C47" t="n">
+        <v>47.66666666666666</v>
+      </c>
+      <c r="D47" t="n">
+        <v>35.625</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.49635734530535</v>
+      </c>
+      <c r="F47" t="n">
+        <v>100</v>
+      </c>
+      <c r="G47" t="n">
+        <v>8.44</v>
+      </c>
+      <c r="H47" t="n">
+        <v>273.2916666666667</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0.8005544698089599</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.6492989083762212</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.643752278014464</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.434022501902976</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.1142571168223632</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.0660377341369152</v>
+      </c>
+      <c r="O47" t="n">
+        <v>0.06998762973957644</v>
+      </c>
+      <c r="P47" t="n">
+        <v>0.0156519670570704</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0.0093459185866368</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.0131992750719648</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.44160688609632</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0.7420226866370477</v>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0.1135324117969298</v>
+      </c>
+      <c r="C48" t="n">
+        <v>24.59452822641245</v>
+      </c>
+      <c r="D48" t="n">
+        <v>8.510329039963802</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.03760046113483007</v>
+      </c>
+      <c r="F48" t="n">
+        <v>78.69242</v>
+      </c>
+      <c r="G48" t="n">
+        <v>4.161998445315692</v>
+      </c>
+      <c r="H48" t="n">
+        <v>156.2351533714472</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0.04019508908927511</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.03937152807500304</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.03854182837817237</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.02838270977933703</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.01467868067319766</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.009187195383178562</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0.001913469091264343</v>
+      </c>
+      <c r="P48" t="n">
+        <v>0.0009095780702789223</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0.0007853254690623966</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.00114867980845275</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.01758343658022942</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0.03003458337777383</v>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.00265499320058532</v>
+      </c>
+      <c r="C49" t="n">
+        <v>18.08</v>
+      </c>
+      <c r="D49" t="n">
+        <v>2.112450993450993</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0003925908586514179</v>
+      </c>
+      <c r="F49" t="n">
+        <v>38.298</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" t="n">
+        <v>100.64</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
+      </c>
+      <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0</v>
+      </c>
+      <c r="T49" t="n">
+        <v>0</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1.453021216911936</v>
+      </c>
+      <c r="C50" t="n">
+        <v>60.46666666666667</v>
+      </c>
+      <c r="D50" t="n">
+        <v>28.98492063492063</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.087648636321082</v>
+      </c>
+      <c r="F50" t="n">
+        <v>100</v>
+      </c>
+      <c r="G50" t="n">
+        <v>8.446808510638299</v>
+      </c>
+      <c r="H50" t="n">
+        <v>262.0769230769231</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0.1430619367487262</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.10109599667856</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.08848448225568001</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0.0555399833169216</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.6078652865496961</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.9330213150065776</v>
+      </c>
+      <c r="O50" t="n">
+        <v>0.30628067619492</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.06373329297955201</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0.017860001487552</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.0497501727421957</v>
+      </c>
+      <c r="S50" t="n">
+        <v>0.162277860874176</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0.1512515551825503</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.1921417661007205</v>
+      </c>
+      <c r="C51" t="n">
+        <v>25.12064718172944</v>
+      </c>
+      <c r="D51" t="n">
+        <v>8.930992091931831</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.08658016649229346</v>
+      </c>
+      <c r="F51" t="n">
+        <v>77.45801923076922</v>
+      </c>
+      <c r="G51" t="n">
+        <v>4.039343141991734</v>
+      </c>
+      <c r="H51" t="n">
+        <v>174.4548470860255</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0.03141744685508627</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.02480558456685258</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.02162775208740328</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.01578107169308242</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.05266684454522892</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0.07595645355578989</v>
+      </c>
+      <c r="O51" t="n">
+        <v>0.02181998518516783</v>
+      </c>
+      <c r="P51" t="n">
+        <v>0.003001901145706752</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0.002244489974438236</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.00449283636444295</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.02176222060831107</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0.03147896146609229</v>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Pacific Northwest basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.00124000603935264</v>
+      </c>
+      <c r="C52" t="n">
+        <v>18.06382978723404</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2.105275988786627</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.0005349420819303754</v>
+      </c>
+      <c r="F52" t="n">
+        <v>30</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.727272727272727</v>
+      </c>
+      <c r="H52" t="n">
+        <v>82.88</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2.895962542573363</v>
+      </c>
+      <c r="C53" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="D53" t="n">
+        <v>13.53324829931973</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.6705803186703563</v>
+      </c>
+      <c r="F53" t="n">
+        <v>100</v>
+      </c>
+      <c r="G53" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="H53" t="n">
+        <v>198.86</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0.80968058494176</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.627324211651811</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1.088236802967552</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.07710488423216</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.51240466596564</v>
+      </c>
+      <c r="N53" t="n">
+        <v>2.1427924159152</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0.51745072802976</v>
+      </c>
+      <c r="P53" t="n">
+        <v>0.40001510181024</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2.62517556111552</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.35903496141072</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.3013051884254031</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0.62724080566728</v>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.115864311338104</v>
+      </c>
+      <c r="C54" t="n">
+        <v>19.0032551808212</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2.37021596315266</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.01957467983501785</v>
+      </c>
+      <c r="F54" t="n">
+        <v>96.39944390243902</v>
+      </c>
+      <c r="G54" t="n">
+        <v>8.452936226634261</v>
+      </c>
+      <c r="H54" t="n">
+        <v>168.3744235613109</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.02605212897346286</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.02852039107434478</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.03689325424904399</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.03091065063663823</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.02239661934266023</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.03496335137318484</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0.01906423206615355</v>
+      </c>
+      <c r="P54" t="n">
+        <v>0.01291427028911767</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0.05257919452589869</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.02073611762643648</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.01876321250023551</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0.02256510848712769</v>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.0005353756386644571</v>
+      </c>
+      <c r="C55" t="n">
+        <v>17.71739130434782</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.176194672563194</v>
+      </c>
+      <c r="E55" t="n">
+        <v>4.463657216482225e-05</v>
+      </c>
+      <c r="F55" t="n">
+        <v>40</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.857142857142857</v>
+      </c>
+      <c r="H55" t="n">
+        <v>138.28</v>
+      </c>
+      <c r="I55" t="n">
+        <v>8.71096027428322e-05</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.0001147181150850112</v>
+      </c>
+      <c r="K55" t="n">
+        <v>9.262141908841311e-05</v>
+      </c>
+      <c r="L55" t="n">
+        <v>5.837855463401472e-05</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5.53516626168298e-05</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.00011170146478302</v>
+      </c>
+      <c r="O55" t="n">
+        <v>9.347083622611201e-05</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0.000180480819826692</v>
+      </c>
+      <c r="R55" t="n">
+        <v>6.5731329675648e-05</v>
+      </c>
+      <c r="S55" t="n">
+        <v>6.509405499765121e-05</v>
+      </c>
+      <c r="T55" t="n">
+        <v>7.485144972749641e-05</v>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Rio Grande aquifer system</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.1626281314725663</v>
+      </c>
+      <c r="C56" t="n">
+        <v>113.25</v>
+      </c>
+      <c r="D56" t="n">
+        <v>22.74691358024691</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.09413319970054883</v>
+      </c>
+      <c r="F56" t="n">
+        <v>100</v>
+      </c>
+      <c r="G56" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="H56" t="n">
+        <v>274.26</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.01802159780238115</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.008073699302592</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.00974379293484408</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.02607827116333091</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.08692238083873222</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.07584034682551681</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0.0453734910589824</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0.00903489767032104</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.0072953824569444</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.00767694630151008</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.023991731450316</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0.0214560306520344</v>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Rio Grande aquifer system</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.07651373485364149</v>
+      </c>
+      <c r="C57" t="n">
+        <v>39.09278956751783</v>
+      </c>
+      <c r="D57" t="n">
+        <v>16.60745003386547</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.0395988941725418</v>
+      </c>
+      <c r="F57" t="n">
+        <v>52.568875</v>
+      </c>
+      <c r="G57" t="n">
+        <v>3.368916062801933</v>
+      </c>
+      <c r="H57" t="n">
+        <v>236.2430429750403</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.001232905873236157</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.001047740370941654</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.001498213144395785</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0.01400053719838491</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.03687982857188687</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.03724190033739944</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0.0191983110890146</v>
+      </c>
+      <c r="P57" t="n">
+        <v>0.002994079778913317</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0.001735476394417378</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.0009688979448543541</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.001712295149037575</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0.001373464915031323</v>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Rio Grande aquifer system</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.00532899105050304</v>
+      </c>
+      <c r="C58" t="n">
+        <v>18.28</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2.744630591630592</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.00119643307255756</v>
+      </c>
+      <c r="F58" t="n">
+        <v>16</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.074074074074074</v>
+      </c>
+      <c r="H58" t="n">
+        <v>145.125</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0.00056658612025008</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.001030218011442456</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.001253869967448015</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0.00029236577777568</v>
+      </c>
+      <c r="P58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.5914621348091795</v>
+      </c>
+      <c r="C59" t="n">
+        <v>31.44827586206896</v>
+      </c>
+      <c r="D59" t="n">
+        <v>15.56439393939394</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.1697749286871229</v>
+      </c>
+      <c r="F59" t="n">
+        <v>100</v>
+      </c>
+      <c r="G59" t="n">
+        <v>14.58</v>
+      </c>
+      <c r="H59" t="n">
+        <v>241.5641025641026</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.2021872273008611</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.206460393908328</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.2041469988857744</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0.1936546097367168</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.1477509213970211</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0.2903956406252868</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0.244762407861696</v>
+      </c>
+      <c r="P59" t="n">
+        <v>0.3209417801557632</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0.32355961599024</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.28961338028616</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.08889224484672001</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0.1914934680042048</v>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.0699539580043112</v>
+      </c>
+      <c r="C60" t="n">
+        <v>19.03795753482108</v>
+      </c>
+      <c r="D60" t="n">
+        <v>3.386547416256719</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.01476172071840101</v>
+      </c>
+      <c r="F60" t="n">
+        <v>96.20107692307693</v>
+      </c>
+      <c r="G60" t="n">
+        <v>6.913528134099818</v>
+      </c>
+      <c r="H60" t="n">
+        <v>185.1433250108745</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.01313174963134276</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.01537086438829594</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.01957047207485057</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.01707887528993631</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.01658340921560942</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.02284173154794624</v>
+      </c>
+      <c r="O60" t="n">
+        <v>0.02336680709494782</v>
+      </c>
+      <c r="P60" t="n">
+        <v>0.015970112906373</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0.02114995083355985</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.01518017954691209</v>
+      </c>
+      <c r="S60" t="n">
+        <v>0.009164530356619001</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0.01319101180302855</v>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.001068820779432591</v>
+      </c>
+      <c r="C61" t="n">
+        <v>17.78260869565218</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.24805822299102</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.0001232446465129933</v>
+      </c>
+      <c r="F61" t="n">
+        <v>57.99999999999999</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1.545454545454545</v>
+      </c>
+      <c r="H61" t="n">
+        <v>147.12</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.0001642447328579568</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.0002026209384204218</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.0002145331066885223</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.000265182575902992</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4.89315109248e-05</v>
+      </c>
+      <c r="S61" t="n">
+        <v>0.000135435432024</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0.0001386173245063902</v>
+      </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.3384735327575281</v>
+      </c>
+      <c r="C62" t="n">
+        <v>127.4285714285714</v>
+      </c>
+      <c r="D62" t="n">
+        <v>54.94761904761905</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.167859718128606</v>
+      </c>
+      <c r="F62" t="n">
+        <v>88</v>
+      </c>
+      <c r="G62" t="n">
+        <v>3.909090909090909</v>
+      </c>
+      <c r="H62" t="n">
+        <v>249.8378378378378</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.007480404732628801</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.061898361319872</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.07770323934858241</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.0806391300040704</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.1536816429370656</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.154576973083392</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.0287227969128576</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.00110014347062592</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.00200537642273472</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.0021564815886144</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.00145489692483072</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.0041836441840704</v>
+      </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.09359903374094732</v>
+      </c>
+      <c r="C63" t="n">
+        <v>48.16383916383916</v>
+      </c>
+      <c r="D63" t="n">
+        <v>19.45575825419576</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.04263937539058422</v>
+      </c>
+      <c r="F63" t="n">
+        <v>52.91833333333333</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2.890453765453766</v>
+      </c>
+      <c r="H63" t="n">
+        <v>195.8977565227565</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.00171912708382464</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.01182179478763296</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.01722244202298368</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.02353744685457098</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.04274795255880259</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.04267160394684833</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0.009579872373246</v>
+      </c>
+      <c r="P63" t="n">
+        <v>0.00018906592137888</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.0004407993562591624</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.0004851587646906811</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.00024683228844288</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0.0007833119373878401</v>
+      </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.004705209607337018</v>
+      </c>
+      <c r="C64" t="n">
+        <v>20.59090909090909</v>
+      </c>
+      <c r="D64" t="n">
+        <v>5.490521284271284</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.0009389343758027291</v>
+      </c>
+      <c r="F64" t="n">
+        <v>14</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2.208333333333333</v>
+      </c>
+      <c r="H64" t="n">
+        <v>115.5714285714286</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0.00017982330264864</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>1.022468857875566</v>
+      </c>
+      <c r="C65" t="n">
+        <v>27.27272727272727</v>
+      </c>
+      <c r="D65" t="n">
+        <v>7.305787037037037</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.1790676392802724</v>
+      </c>
+      <c r="F65" t="n">
+        <v>100</v>
+      </c>
+      <c r="G65" t="n">
+        <v>10.71739130434783</v>
+      </c>
+      <c r="H65" t="n">
+        <v>183.52</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.2737792174895476</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.2707914297770182</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.3032629575059598</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.2997133965935814</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.163077852243264</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0.08901457362403199</v>
+      </c>
+      <c r="O65" t="n">
+        <v>0.4266509697821552</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0.139874219086464</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0.325333383261264</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.229908199188096</v>
+      </c>
+      <c r="S65" t="n">
+        <v>0.1651660909670749</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0.2841648565446853</v>
+      </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.2455616060739392</v>
+      </c>
+      <c r="C66" t="n">
+        <v>19.76181517294468</v>
+      </c>
+      <c r="D66" t="n">
+        <v>3.601937359383174</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.04474746978801411</v>
+      </c>
+      <c r="F66" t="n">
+        <v>89.5104193548387</v>
+      </c>
+      <c r="G66" t="n">
+        <v>5.864953119076207</v>
+      </c>
+      <c r="H66" t="n">
+        <v>157.5663754349578</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.06450211408179313</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.06512993905636083</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.08595758562283681</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.06718697248411792</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.04437020180128108</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.02596039345654624</v>
+      </c>
+      <c r="O66" t="n">
+        <v>0.0685083926328561</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0.01656844761603506</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0.05124806355813501</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.03817659989174426</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.04259382795382184</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0.06912034481701544</v>
+      </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.003423041077241827</v>
+      </c>
+      <c r="C67" t="n">
+        <v>15.14285714285714</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.547751240080654</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.0002761288303576104</v>
+      </c>
+      <c r="F67" t="n">
+        <v>14.583</v>
+      </c>
+      <c r="G67" t="n">
+        <v>3.222222222222222</v>
+      </c>
+      <c r="H67" t="n">
+        <v>135.5625</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.0004177713091837091</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.0007516239868570786</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.0006380878731069312</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.0007244962612562304</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.0007542648492849318</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
+        <v>0.000173788416301248</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.0002305163479667328</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.000455939741171376</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0.0008070820978419953</v>
+      </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1.117430205882539</v>
+      </c>
+      <c r="C68" t="n">
+        <v>35</v>
+      </c>
+      <c r="D68" t="n">
+        <v>20.90432098765432</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.5373867208264009</v>
+      </c>
+      <c r="F68" t="n">
+        <v>100</v>
+      </c>
+      <c r="G68" t="n">
+        <v>9.63265306122449</v>
+      </c>
+      <c r="H68" t="n">
+        <v>284.1951219512195</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.3945949959847237</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.4104375136372224</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.6554820720294459</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.4546600862165534</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.136233481666464</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0.1647744164637185</v>
+      </c>
+      <c r="O68" t="n">
+        <v>0.389739484516032</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0.1249037980744176</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0.276982934028696</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.476592916407552</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.143450879527872</v>
+      </c>
+      <c r="T68" t="n">
+        <v>0.331725061875816</v>
+      </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.1151620230771361</v>
+      </c>
+      <c r="C69" t="n">
+        <v>23.39056947069516</v>
+      </c>
+      <c r="D69" t="n">
+        <v>7.888134173150633</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.04762434118895748</v>
+      </c>
+      <c r="F69" t="n">
+        <v>79.73744000000001</v>
+      </c>
+      <c r="G69" t="n">
+        <v>3.641605758673001</v>
+      </c>
+      <c r="H69" t="n">
+        <v>208.9662263577165</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.0367472512624849</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.04212627991864113</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.05149672625775371</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.04043444135429557</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.01445185187687261</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0.01865440083315967</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0.03493393351735791</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0.01987443813866058</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0.03198285040008275</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0.0417345985886755</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.01535004278922781</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0.03364750262332566</v>
+      </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.001188487345091586</v>
+      </c>
+      <c r="C70" t="n">
+        <v>17.91836734693878</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1.921685779136654</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.0003405500213874571</v>
+      </c>
+      <c r="F70" t="n">
+        <v>52</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1.548387096774194</v>
+      </c>
+      <c r="H70" t="n">
+        <v>141</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.0003265648262862073</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.0002007476400078598</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>0.00034811274915072</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.00047280072431088</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.0003399647205529639</v>
+      </c>
+      <c r="S70" t="n">
+        <v>0</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0.0003547534542048</v>
+      </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>1.190718959448453</v>
+      </c>
+      <c r="C71" t="n">
+        <v>23.64864864864865</v>
+      </c>
+      <c r="D71" t="n">
+        <v>4.654795157426737</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.257960789291323</v>
+      </c>
+      <c r="F71" t="n">
+        <v>100</v>
+      </c>
+      <c r="G71" t="n">
+        <v>9.577777777777778</v>
+      </c>
+      <c r="H71" t="n">
+        <v>183.8125</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.238704220794816</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.203555085447168</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.3814146893021154</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.4721742526937368</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.205007739677748</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0.483128768223936</v>
+      </c>
+      <c r="O71" t="n">
+        <v>0.134500490654544</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0.248082760388736</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0.7197825257038081</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.162738050084064</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.1438774619308061</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0.1829523440051469</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.1088012759334853</v>
+      </c>
+      <c r="C72" t="n">
+        <v>18.66643457911594</v>
+      </c>
+      <c r="D72" t="n">
+        <v>2.905171648327878</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.01858263414165666</v>
+      </c>
+      <c r="F72" t="n">
+        <v>97.605</v>
+      </c>
+      <c r="G72" t="n">
+        <v>6.481532610455696</v>
+      </c>
+      <c r="H72" t="n">
+        <v>166.9826526501073</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.02227716627769013</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.02627396923140742</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.03640935444825113</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.03115341079003447</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.02249008427047313</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0.02796306062679069</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0.01343562833112127</v>
+      </c>
+      <c r="P72" t="n">
+        <v>0.013926445002522</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0.04315922675311237</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.01824358460938715</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.01747434870795457</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0.02001748322315995</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.001179664267402043</v>
+      </c>
+      <c r="C73" t="n">
+        <v>18.02</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.836013061013061</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.0002639680069045282</v>
+      </c>
+      <c r="F73" t="n">
+        <v>77.083</v>
+      </c>
+      <c r="G73" t="n">
+        <v>4.413043478260869</v>
+      </c>
+      <c r="H73" t="n">
+        <v>147.0833333333333</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.000242935165439447</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.0001929491804542176</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.0002717386149806566</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.000303925847231664</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.0002770962680429703</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.000178049535377616</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0.000121533640259472</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0.000459641642980032</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0.000325863474629616</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.000221557803841584</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0.0002311279918532928</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
           <t>Willamette Lowland basin-fill aquifers</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B74" t="n">
+        <v>1.044532067073356</v>
+      </c>
+      <c r="C74" t="n">
+        <v>25.22222222222222</v>
+      </c>
+      <c r="D74" t="n">
+        <v>10.31990740740741</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.4023364558477998</v>
+      </c>
+      <c r="F74" t="n">
+        <v>100</v>
+      </c>
+      <c r="G74" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="H74" t="n">
+        <v>112.2340425531915</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.5158801843726576</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.3658016743030838</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.190262024979264</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0.343988521801344</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.0243923581960128</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.080981650580544</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0.0054313977126528</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.014190138168192</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.308941327101456</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0.4608903497198662</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>Willamette Lowland basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
         <v>0.1872401201226056</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C75" t="n">
         <v>19.87898736398801</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D75" t="n">
         <v>5.119966763726567</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E75" t="n">
         <v>0.06055609803361665</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F75" t="n">
         <v>91.89590000000001</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G75" t="n">
         <v>4.548066550718344</v>
       </c>
-      <c r="H26" t="n">
+      <c r="H75" t="n">
         <v>107.8793475078858</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I75" t="n">
         <v>0.08696047891279675</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J75" t="n">
         <v>0.06202492830561333</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K75" t="n">
         <v>0.0378048270661527</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L75" t="n">
         <v>0.04611905144765871</v>
       </c>
-      <c r="M26" t="n">
+      <c r="M75" t="n">
         <v>0.006072390584271534</v>
       </c>
-      <c r="N26" t="n">
+      <c r="N75" t="n">
         <v>0.01863335964883363</v>
       </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="n">
         <v>0.0004143887331444</v>
       </c>
-      <c r="R26" t="n">
+      <c r="R75" t="n">
         <v>0.002406552303657146</v>
       </c>
-      <c r="S26" t="n">
+      <c r="S75" t="n">
         <v>0.0493728277785177</v>
       </c>
-      <c r="T26" t="n">
+      <c r="T75" t="n">
         <v>0.08338556129665713</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>Willamette Lowland basin-fill aquifers</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.007234823470910812</v>
+      </c>
+      <c r="C76" t="n">
+        <v>18.14</v>
+      </c>
+      <c r="D76" t="n">
+        <v>2.223682151182151</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.0009236423721694125</v>
+      </c>
+      <c r="F76" t="n">
+        <v>72</v>
+      </c>
+      <c r="G76" t="n">
+        <v>2.638888888888889</v>
+      </c>
+      <c r="H76" t="n">
+        <v>102.2978723404255</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.002302341383223293</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.001710413841089785</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.0009434310993468697</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0.000444787434306432</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>0</v>
+      </c>
+      <c r="P76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.001212604393234752</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0.002580803577345076</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
       </c>
     </row>
   </sheetData>
